--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.354157221998348e-11</v>
+        <v>4.438852977344963e-13</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.671086993807258e-11</v>
+        <v>1.211574582120952e-12</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.33737722157651e-11</v>
+        <v>1.811262113694856e-12</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>3.261054601759661e-11</v>
+        <v>1.8724432666686e-12</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>4.320632096345766e-11</v>
+        <v>1.934179518491853e-12</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>8.783666543636032e-11</v>
+        <v>2.039987255589898e-12</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.435230869376306e-10</v>
+        <v>1.825210155110549e-12</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>3.867302551978537e-10</v>
+        <v>1.984886928929174e-12</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>6.142812804016024e-10</v>
+        <v>1.471637939642648e-12</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>6.525997634656431e-10</v>
+        <v>1.829181266000856e-12</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>5.1085145592208e-10</v>
+        <v>1.404906745686312e-12</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>2.571450629101008e-10</v>
+        <v>1.237710401047203e-12</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.954492182877395e-10</v>
+        <v>8.807942355088014e-13</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>2.460408974390176e-10</v>
+        <v>6.428960536802897e-13</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.078187157752173e-10</v>
+        <v>6.553120972833445e-13</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>7.720968535784981e-11</v>
+        <v>5.647793648839487e-13</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>4.384417527681781e-11</v>
+        <v>5.76891300505005e-13</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>2.216665542023836e-11</v>
+        <v>7.400108479911122e-13</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.688665508532323e-11</v>
+        <v>6.062509818980567e-13</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.686886229411531e-11</v>
+        <v>7.030974864913983e-13</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.981845787319733e-11</v>
+        <v>1.333600574281991e-12</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.480904018981652e-11</v>
+        <v>1.488939281670473e-12</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>2.362115021952272e-11</v>
+        <v>1.964208285021434e-12</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>4.941509109898969e-11</v>
+        <v>2.136505811584952e-12</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>7.384858250012268e-11</v>
+        <v>1.862198399572454e-12</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.731372796621311e-10</v>
+        <v>2.251555480985946e-12</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>4.209905921792598e-10</v>
+        <v>2.041949730734941e-12</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>4.00334901507401e-10</v>
+        <v>2.121991216116269e-12</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.103309253242084e-10</v>
+        <v>2.073769423285469e-12</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.059294361995923e-10</v>
+        <v>2.056360421821816e-12</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>5.126922099745152e-11</v>
+        <v>1.932355728622251e-12</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>5.118844272705904e-11</v>
+        <v>1.777378330122936e-12</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.469699107847046e-11</v>
+        <v>2.106750889003974e-12</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.974697414294122e-11</v>
+        <v>1.831887072856482e-12</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.875887603428e-11</v>
+        <v>1.765111831457804e-12</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.095521367497252e-11</v>
+        <v>1.140774583454169e-12</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>4.332329272833803e-11</v>
+        <v>1.157027386227922e-12</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>2.713028780323808e-11</v>
+        <v>9.464879308609854e-13</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.169221896283388e-11</v>
+        <v>1.152906000001967e-12</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>9.732727384132977e-12</v>
+        <v>1.729717438897487e-12</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>8.266051655430954e-12</v>
+        <v>1.754566865060492e-12</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>9.836771661944229e-12</v>
+        <v>1.626167128057862e-12</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.649512806514529e-11</v>
+        <v>1.438457996104488e-12</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>3.75037530189299e-11</v>
+        <v>1.486945230094841e-12</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>4.158255752867584e-11</v>
+        <v>1.41144605425973e-12</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>4.656145619174891e-11</v>
+        <v>8.686749694664746e-13</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>4.739975393258622e-11</v>
+        <v>1.057773459936187e-12</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>4.146189340911042e-11</v>
+        <v>1.460129003553547e-12</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>3.502774527110086e-11</v>
+        <v>2.023378166799799e-12</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>2.538903359324846e-11</v>
+        <v>2.663180995857606e-12</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>2.233192469197361e-11</v>
+        <v>5.378816216036964e-12</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>2.083965744907158e-11</v>
+        <v>8.731293160179501e-12</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>2.078760614236537e-11</v>
+        <v>2.344817752219805e-11</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>1.985051074207531e-11</v>
+        <v>3.711840461992346e-11</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.929410010727323e-11</v>
+        <v>3.917708946476857e-11</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2.091084055506902e-11</v>
+        <v>3.0504774113856e-11</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>2.636359269456047e-11</v>
+        <v>1.527220737299763e-11</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>3.954871061877288e-11</v>
+        <v>1.159214178279315e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>5.82829223207198e-11</v>
+        <v>1.457454701548994e-11</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>7.407434902996872e-11</v>
+        <v>6.377670770541288e-12</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>9.507524920775702e-11</v>
+        <v>4.55870157984755e-12</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.15688901939506e-10</v>
+        <v>2.58015387144731e-12</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.232109674787998e-10</v>
+        <v>1.295632374706783e-12</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.494044578219988e-10</v>
+        <v>9.857285256042236e-13</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.769186682168871e-10</v>
+        <v>9.827961497104454e-13</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.764860870685146e-10</v>
+        <v>1.150824101897484e-12</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.932951737384795e-10</v>
+        <v>1.435683136186596e-12</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.937995223913453e-10</v>
+        <v>1.363162130341552e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.903690613985331e-10</v>
+        <v>2.841039278923836e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.850055301456968e-10</v>
+        <v>4.23122835100719e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.839471247287256e-10</v>
+        <v>9.857319797855934e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.728750417896208e-10</v>
+        <v>2.380390493336378e-11</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.672427529218974e-10</v>
+        <v>2.248696241152706e-11</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>1.324901425313161e-10</v>
+        <v>1.173698124781828e-11</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>1.204525405764363e-10</v>
+        <v>5.871818648206708e-12</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>9.95482089149332e-11</v>
+        <v>2.822766964352738e-12</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>7.458851153298047e-11</v>
+        <v>2.800193577470166e-12</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>6.679999868932083e-11</v>
+        <v>1.885193232350056e-12</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>5.63960049532982e-11</v>
+        <v>1.605859579090132e-12</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>5.312497561846028e-11</v>
+        <v>1.009168839791698e-12</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>5.323520020271184e-11</v>
+        <v>1.123746126630216e-12</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>5.230172424209858e-11</v>
+        <v>2.307887743102079e-12</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>4.984505315119888e-11</v>
+        <v>1.426053164516845e-12</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>4.964460746465211e-11</v>
+        <v>6.105014732924927e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>4.977808846210465e-11</v>
+        <v>5.04899415805965e-13</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.507977565957463e-11</v>
+        <v>4.231328048185088e-13</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>5.935857026840223e-11</v>
+        <v>4.969024712274241e-13</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>6.176932790000653e-11</v>
+        <v>8.222586985405827e-13</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>6.154402699062077e-11</v>
+        <v>1.863091469765136e-12</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>5.972724396501796e-11</v>
+        <v>2.060648773420708e-12</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>5.566791009662122e-11</v>
+        <v>2.290350906772004e-12</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>4.690478227993784e-11</v>
+        <v>2.323891670918353e-12</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>2.828634251331902e-11</v>
+        <v>2.025822318625066e-12</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>2.341568456320651e-11</v>
+        <v>1.70019529523752e-12</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.839365627916545e-11</v>
+        <v>1.224355579313983e-12</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.37033192376421e-11</v>
+        <v>1.069726972826033e-12</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.261488926023613e-11</v>
+        <v>9.968350780632681e-13</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22391331375302e-11</v>
+        <v>9.922946204673716e-13</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.235237679978371e-11</v>
+        <v>9.44554318370919e-13</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>1.166521849070228e-11</v>
+        <v>9.121072304308055e-13</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.155353764207956e-11</v>
+        <v>9.754089126952887e-13</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>1.159107659153459e-11</v>
+        <v>1.216556384132625e-12</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>1.153725285656538e-11</v>
+        <v>1.796620520288269e-12</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>1.127395110270012e-11</v>
+        <v>2.630126817365698e-12</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.098819963116314e-11</v>
+        <v>3.320143841522305e-12</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.091989337384611e-11</v>
+        <v>4.233725015398034e-12</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>9.73230483654723e-12</v>
+        <v>5.13053156550553e-12</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>9.853739354966567e-12</v>
+        <v>5.449483536473263e-12</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>9.887315214307424e-12</v>
+        <v>6.578537391367617e-12</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>9.744155608263353e-12</v>
+        <v>7.739369320770169e-12</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>8.443082418566819e-12</v>
+        <v>7.702427282290459e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>7.201806730824864e-12</v>
+        <v>8.399765213665127e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>6.726756240284217e-12</v>
+        <v>8.393163469863696e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>6.52594794251439e-12</v>
+        <v>8.22884866649302e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>7.971622528024605e-12</v>
+        <v>7.980460554814772e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.356866350771204e-11</v>
+        <v>7.923383220134838e-12</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.650664982708033e-11</v>
+        <v>7.432831333884712e-12</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.735362257729819e-11</v>
+        <v>7.181939105379197e-12</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>1.752683505056814e-11</v>
+        <v>5.651607909415874e-12</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.771993420076302e-11</v>
+        <v>5.119873044366916e-12</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>1.778042747948671e-11</v>
+        <v>4.218427100222536e-12</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>1.681153457699293e-11</v>
+        <v>3.139892622085699e-12</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.529321665458013e-11</v>
+        <v>2.802056984777524e-12</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>9.230307383633487e-12</v>
+        <v>2.358037173253015e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>5.585793536759256e-12</v>
+        <v>2.216996526446986e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.718752997380714e-12</v>
+        <v>2.221419428634874e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>5.063210689425705e-12</v>
+        <v>2.179629284453151e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>6.863677573115729e-12</v>
+        <v>2.070394052997774e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>7.56521109132692e-12</v>
+        <v>2.057924858984609e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>1.119660512425819e-11</v>
+        <v>2.060351087254121e-12</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>1.438028926262248e-11</v>
+        <v>2.275739585830773e-12</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>1.469827554600493e-11</v>
+        <v>2.447453060311431e-12</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>1.389444803863389e-11</v>
+        <v>2.542106394032723e-12</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.232127135460073e-11</v>
+        <v>2.527342215892452e-12</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.219894309387505e-11</v>
+        <v>2.448164098240247e-12</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.074034808763262e-11</v>
+        <v>2.273943288735509e-12</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>8.977398026724037e-12</v>
+        <v>1.90979991119217e-12</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>8.066219417491936e-12</v>
+        <v>1.144071370792407e-12</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>7.854152959461315e-12</v>
+        <v>9.439154335263393e-13</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>7.649043606984241e-12</v>
+        <v>7.392252854086635e-13</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>7.513622620906719e-12</v>
+        <v>5.471863253798893e-13</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>6.983399701153995e-12</v>
+        <v>5.01788641001934e-13</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>7.683839293979535e-12</v>
+        <v>4.856380698766753e-13</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>8.71935588923891e-12</v>
+        <v>4.891433995119776e-13</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>9.735056676749954e-12</v>
+        <v>4.612798548571902e-13</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>1.082970158793537e-11</v>
+        <v>4.56530162751874e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>1.234368538294945e-11</v>
+        <v>4.57879733325324e-13</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>1.369116205362182e-11</v>
+        <v>4.556688446384061e-13</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>1.30537359391765e-11</v>
+        <v>4.446286918822924e-13</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>1.29658758944493e-11</v>
+        <v>4.3278984911107e-13</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>1.144055144169532e-11</v>
+        <v>4.295174505066194e-13</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>1.12314927017485e-11</v>
+        <v>3.823280267783436e-13</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>9.828028478384206e-12</v>
+        <v>3.867748782282637e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>9.380010378398403e-12</v>
+        <v>3.879099168480508e-13</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>9.130793501889798e-12</v>
+        <v>3.815099771167771e-13</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.149260243160045e-11</v>
+        <v>3.29482842560459e-13</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>9.994030781997893e-12</v>
+        <v>2.801176286135846e-13</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>1.042323575416556e-11</v>
+        <v>2.608166400967935e-13</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>9.389282987063725e-12</v>
+        <v>2.52792299391193e-13</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>8.747164940791374e-12</v>
+        <v>3.080004012368886e-13</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>8.250135683361246e-12</v>
+        <v>5.224924307519806e-13</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>7.702227874255021e-12</v>
+        <v>6.34458628930778e-13</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>7.07266391950482e-12</v>
+        <v>6.656465794973951e-13</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>7.125873320985073e-12</v>
+        <v>6.7084180196902e-13</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>3.599729471341752e-12</v>
+        <v>6.773238657290105e-13</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.462301191527197e-12</v>
+        <v>6.791986769038896e-13</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>8.97561681785417e-13</v>
+        <v>6.396095793431082e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.264872106058048e-12</v>
+        <v>5.80944612946932e-13</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>7.852177300887862e-13</v>
+        <v>3.481553910603701e-13</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>6.336859401764739e-13</v>
+        <v>2.079393102104729e-13</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>5.349298247947832e-13</v>
+        <v>1.733238823012793e-13</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>5.459722496432102e-13</v>
+        <v>1.835233725700856e-13</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>7.372643927290772e-13</v>
+        <v>2.472248707409158e-13</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.328098601452643e-12</v>
+        <v>2.718504310908326e-13</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.430207588338229e-12</v>
+        <v>4.004581472278456e-13</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.205504749217378e-12</v>
+        <v>5.109875018849166e-13</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.060838461379074e-12</v>
+        <v>5.205216123870673e-13</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.904441205779009e-13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.334790134739025e-13</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.291582464716746e-13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.7664543566355e-13</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.137494888536843e-13</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.80931599381742e-13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.730413807356608e-13</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.650773657572567e-13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.60030262894803e-13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.412540250077565e-13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.644231349019987e-13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.991334891281338e-13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.329518677468936e-13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.690918128387598e-13</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.193327652921061e-13</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.635057882911679e-13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.419173225032119e-13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.376162744744568e-13</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.847860147925777e-13</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.77706992606774e-13</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.296308975276666e-13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.143288792437871e-13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>3.059125073982612e-13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.84155214625671e-13</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>3.337199610733072e-13</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.470598856107496e-13</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.122323438498635e-13</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.904817825487519e-13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.73618052052627e-13</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.55075452561434e-13</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.339169157180362e-13</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.354249893233477e-13</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.185221816193119e-13</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>4.797793567910939e-14</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.939362637912661e-14</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.141087430293651e-14</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.569851165009966e-14</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.071030708672668e-14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.743752937661877e-14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.775948706410311e-14</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.381798856315909e-14</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.260259934442521e-14</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4.556603556558885e-14</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>3.812637351704746e-14</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.346539200937213e-14</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>4.438852977344963e-13</v>
+        <v>1.354157221998348e-11</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.211574582120952e-12</v>
+        <v>1.671086993807258e-11</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.811262113694856e-12</v>
+        <v>2.33737722157651e-11</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8724432666686e-12</v>
+        <v>3.261054601759661e-11</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.934179518491853e-12</v>
+        <v>4.320632096345766e-11</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>2.039987255589898e-12</v>
+        <v>8.783666543636032e-11</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.825210155110549e-12</v>
+        <v>1.435230869376306e-10</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.984886928929174e-12</v>
+        <v>3.867302551978537e-10</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.471637939642648e-12</v>
+        <v>6.142812804016024e-10</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>1.829181266000856e-12</v>
+        <v>6.525997634656431e-10</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.404906745686312e-12</v>
+        <v>5.1085145592208e-10</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.237710401047203e-12</v>
+        <v>2.571450629101008e-10</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>8.807942355088014e-13</v>
+        <v>1.954492182877395e-10</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>6.428960536802897e-13</v>
+        <v>2.460408974390176e-10</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>6.553120972833445e-13</v>
+        <v>1.078187157752173e-10</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>5.647793648839487e-13</v>
+        <v>7.720968535784981e-11</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>5.76891300505005e-13</v>
+        <v>4.384417527681781e-11</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>7.400108479911122e-13</v>
+        <v>2.216665542023836e-11</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>6.062509818980567e-13</v>
+        <v>1.688665508532323e-11</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>7.030974864913983e-13</v>
+        <v>1.686886229411531e-11</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>1.333600574281991e-12</v>
+        <v>1.981845787319733e-11</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.488939281670473e-12</v>
+        <v>2.480904018981652e-11</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>1.964208285021434e-12</v>
+        <v>2.362115021952272e-11</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>2.136505811584952e-12</v>
+        <v>4.941509109898969e-11</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>1.862198399572454e-12</v>
+        <v>7.384858250012268e-11</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>2.251555480985946e-12</v>
+        <v>1.731372796621311e-10</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>2.041949730734941e-12</v>
+        <v>4.209905921792598e-10</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>2.121991216116269e-12</v>
+        <v>4.00334901507401e-10</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>2.073769423285469e-12</v>
+        <v>2.103309253242084e-10</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>2.056360421821816e-12</v>
+        <v>1.059294361995923e-10</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.932355728622251e-12</v>
+        <v>5.126922099745152e-11</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>1.777378330122936e-12</v>
+        <v>5.118844272705904e-11</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>2.106750889003974e-12</v>
+        <v>3.469699107847046e-11</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.831887072856482e-12</v>
+        <v>2.974697414294122e-11</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.765111831457804e-12</v>
+        <v>1.875887603428e-11</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.140774583454169e-12</v>
+        <v>2.095521367497252e-11</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.157027386227922e-12</v>
+        <v>4.332329272833803e-11</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>9.464879308609854e-13</v>
+        <v>2.713028780323808e-11</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.152906000001967e-12</v>
+        <v>1.169221896283388e-11</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>1.729717438897487e-12</v>
+        <v>9.732727384132977e-12</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.754566865060492e-12</v>
+        <v>8.266051655430954e-12</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.626167128057862e-12</v>
+        <v>9.836771661944229e-12</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.438457996104488e-12</v>
+        <v>1.649512806514529e-11</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.486945230094841e-12</v>
+        <v>3.75037530189299e-11</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>1.41144605425973e-12</v>
+        <v>4.158255752867584e-11</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>8.686749694664746e-13</v>
+        <v>4.656145619174891e-11</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.057773459936187e-12</v>
+        <v>4.739975393258622e-11</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>1.460129003553547e-12</v>
+        <v>4.146189340911042e-11</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.023378166799799e-12</v>
+        <v>3.502774527110086e-11</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>2.663180995857606e-12</v>
+        <v>2.538903359324846e-11</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>5.378816216036964e-12</v>
+        <v>2.233192469197361e-11</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>8.731293160179501e-12</v>
+        <v>2.083965744907158e-11</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>2.344817752219805e-11</v>
+        <v>2.078760614236537e-11</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>3.711840461992346e-11</v>
+        <v>1.985051074207531e-11</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>3.917708946476857e-11</v>
+        <v>1.929410010727323e-11</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>3.0504774113856e-11</v>
+        <v>2.091084055506902e-11</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.527220737299763e-11</v>
+        <v>2.636359269456047e-11</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>1.159214178279315e-11</v>
+        <v>3.954871061877288e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>1.457454701548994e-11</v>
+        <v>5.82829223207198e-11</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>6.377670770541288e-12</v>
+        <v>7.407434902996872e-11</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>4.55870157984755e-12</v>
+        <v>9.507524920775702e-11</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>2.58015387144731e-12</v>
+        <v>1.15688901939506e-10</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>1.295632374706783e-12</v>
+        <v>1.232109674787998e-10</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>9.857285256042236e-13</v>
+        <v>1.494044578219988e-10</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>9.827961497104454e-13</v>
+        <v>1.769186682168871e-10</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.150824101897484e-12</v>
+        <v>1.764860870685146e-10</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.435683136186596e-12</v>
+        <v>1.932951737384795e-10</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.363162130341552e-12</v>
+        <v>1.937995223913453e-10</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.841039278923836e-12</v>
+        <v>1.903690613985331e-10</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>4.23122835100719e-12</v>
+        <v>1.850055301456968e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>9.857319797855934e-12</v>
+        <v>1.839471247287256e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>2.380390493336378e-11</v>
+        <v>1.728750417896208e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>2.248696241152706e-11</v>
+        <v>1.672427529218974e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>1.173698124781828e-11</v>
+        <v>1.324901425313161e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>5.871818648206708e-12</v>
+        <v>1.204525405764363e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>2.822766964352738e-12</v>
+        <v>9.95482089149332e-11</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>2.800193577470166e-12</v>
+        <v>7.458851153298047e-11</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.885193232350056e-12</v>
+        <v>6.679999868932083e-11</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.605859579090132e-12</v>
+        <v>5.63960049532982e-11</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>1.009168839791698e-12</v>
+        <v>5.312497561846028e-11</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>1.123746126630216e-12</v>
+        <v>5.323520020271184e-11</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>2.307887743102079e-12</v>
+        <v>5.230172424209858e-11</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.426053164516845e-12</v>
+        <v>4.984505315119888e-11</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>6.105014732924927e-13</v>
+        <v>4.964460746465211e-11</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>5.04899415805965e-13</v>
+        <v>4.977808846210465e-11</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>4.231328048185088e-13</v>
+        <v>5.507977565957463e-11</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>4.969024712274241e-13</v>
+        <v>5.935857026840223e-11</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>8.222586985405827e-13</v>
+        <v>6.176932790000653e-11</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.863091469765136e-12</v>
+        <v>6.154402699062077e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>2.060648773420708e-12</v>
+        <v>5.972724396501796e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>2.290350906772004e-12</v>
+        <v>5.566791009662122e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>2.323891670918353e-12</v>
+        <v>4.690478227993784e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>2.025822318625066e-12</v>
+        <v>2.828634251331902e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>1.70019529523752e-12</v>
+        <v>2.341568456320651e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>1.224355579313983e-12</v>
+        <v>1.839365627916545e-11</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.069726972826033e-12</v>
+        <v>1.37033192376421e-11</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>9.968350780632681e-13</v>
+        <v>1.261488926023613e-11</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>9.922946204673716e-13</v>
+        <v>1.22391331375302e-11</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>9.44554318370919e-13</v>
+        <v>1.235237679978371e-11</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>9.121072304308055e-13</v>
+        <v>1.166521849070228e-11</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>9.754089126952887e-13</v>
+        <v>1.155353764207956e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>1.216556384132625e-12</v>
+        <v>1.159107659153459e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>1.796620520288269e-12</v>
+        <v>1.153725285656538e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>2.630126817365698e-12</v>
+        <v>1.127395110270012e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>3.320143841522305e-12</v>
+        <v>1.098819963116314e-11</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>4.233725015398034e-12</v>
+        <v>1.091989337384611e-11</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>5.13053156550553e-12</v>
+        <v>9.73230483654723e-12</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>5.449483536473263e-12</v>
+        <v>9.853739354966567e-12</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>6.578537391367617e-12</v>
+        <v>9.887315214307424e-12</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>7.739369320770169e-12</v>
+        <v>9.744155608263353e-12</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>7.702427282290459e-12</v>
+        <v>8.443082418566819e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>8.399765213665127e-12</v>
+        <v>7.201806730824864e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>8.393163469863696e-12</v>
+        <v>6.726756240284217e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>8.22884866649302e-12</v>
+        <v>6.52594794251439e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>7.980460554814772e-12</v>
+        <v>7.971622528024605e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>7.923383220134838e-12</v>
+        <v>1.356866350771204e-11</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>7.432831333884712e-12</v>
+        <v>1.650664982708033e-11</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>7.181939105379197e-12</v>
+        <v>1.735362257729819e-11</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>5.651607909415874e-12</v>
+        <v>1.752683505056814e-11</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>5.119873044366916e-12</v>
+        <v>1.771993420076302e-11</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>4.218427100222536e-12</v>
+        <v>1.778042747948671e-11</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.139892622085699e-12</v>
+        <v>1.681153457699293e-11</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.802056984777524e-12</v>
+        <v>1.529321665458013e-11</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>2.358037173253015e-12</v>
+        <v>9.230307383633487e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>2.216996526446986e-12</v>
+        <v>5.585793536759256e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>2.221419428634874e-12</v>
+        <v>4.718752997380714e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>2.179629284453151e-12</v>
+        <v>5.063210689425705e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>2.070394052997774e-12</v>
+        <v>6.863677573115729e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>2.057924858984609e-12</v>
+        <v>7.56521109132692e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>2.060351087254121e-12</v>
+        <v>1.119660512425819e-11</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>2.275739585830773e-12</v>
+        <v>1.438028926262248e-11</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>2.447453060311431e-12</v>
+        <v>1.469827554600493e-11</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>2.542106394032723e-12</v>
+        <v>1.389444803863389e-11</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>2.527342215892452e-12</v>
+        <v>1.232127135460073e-11</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.448164098240247e-12</v>
+        <v>1.219894309387505e-11</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>2.273943288735509e-12</v>
+        <v>1.074034808763262e-11</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.90979991119217e-12</v>
+        <v>8.977398026724037e-12</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.144071370792407e-12</v>
+        <v>8.066219417491936e-12</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>9.439154335263393e-13</v>
+        <v>7.854152959461315e-12</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>7.392252854086635e-13</v>
+        <v>7.649043606984241e-12</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>5.471863253798893e-13</v>
+        <v>7.513622620906719e-12</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>5.01788641001934e-13</v>
+        <v>6.983399701153995e-12</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>4.856380698766753e-13</v>
+        <v>7.683839293979535e-12</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>4.891433995119776e-13</v>
+        <v>8.71935588923891e-12</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>4.612798548571902e-13</v>
+        <v>9.735056676749954e-12</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>4.56530162751874e-13</v>
+        <v>1.082970158793537e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>4.57879733325324e-13</v>
+        <v>1.234368538294945e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>4.556688446384061e-13</v>
+        <v>1.369116205362182e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>4.446286918822924e-13</v>
+        <v>1.30537359391765e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>4.3278984911107e-13</v>
+        <v>1.29658758944493e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>4.295174505066194e-13</v>
+        <v>1.144055144169532e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>3.823280267783436e-13</v>
+        <v>1.12314927017485e-11</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>3.867748782282637e-13</v>
+        <v>9.828028478384206e-12</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>3.879099168480508e-13</v>
+        <v>9.380010378398403e-12</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>3.815099771167771e-13</v>
+        <v>9.130793501889798e-12</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>3.29482842560459e-13</v>
+        <v>1.149260243160045e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>2.801176286135846e-13</v>
+        <v>9.994030781997893e-12</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>2.608166400967935e-13</v>
+        <v>1.042323575416556e-11</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>2.52792299391193e-13</v>
+        <v>9.389282987063725e-12</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>3.080004012368886e-13</v>
+        <v>8.747164940791374e-12</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>5.224924307519806e-13</v>
+        <v>8.250135683361246e-12</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>6.34458628930778e-13</v>
+        <v>7.702227874255021e-12</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>6.656465794973951e-13</v>
+        <v>7.07266391950482e-12</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>6.7084180196902e-13</v>
+        <v>7.125873320985073e-12</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>6.773238657290105e-13</v>
+        <v>3.599729471341752e-12</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>6.791986769038896e-13</v>
+        <v>1.462301191527197e-12</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>6.396095793431082e-13</v>
+        <v>8.97561681785417e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>5.80944612946932e-13</v>
+        <v>1.264872106058048e-12</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>3.481553910603701e-13</v>
+        <v>7.852177300887862e-13</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.079393102104729e-13</v>
+        <v>6.336859401764739e-13</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.733238823012793e-13</v>
+        <v>5.349298247947832e-13</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.835233725700856e-13</v>
+        <v>5.459722496432102e-13</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>2.472248707409158e-13</v>
+        <v>7.372643927290772e-13</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>2.718504310908326e-13</v>
+        <v>1.328098601452643e-12</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>4.004581472278456e-13</v>
+        <v>1.430207588338229e-12</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>5.109875018849166e-13</v>
+        <v>1.205504749217378e-12</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>5.205216123870673e-13</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.904441205779009e-13</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.334790134739025e-13</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.291582464716746e-13</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.7664543566355e-13</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.137494888536843e-13</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.80931599381742e-13</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.730413807356608e-13</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.650773657572567e-13</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.60030262894803e-13</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.412540250077565e-13</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.644231349019987e-13</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.991334891281338e-13</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.329518677468936e-13</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.690918128387598e-13</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.193327652921061e-13</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.635057882911679e-13</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.419173225032119e-13</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.376162744744568e-13</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.847860147925777e-13</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.77706992606774e-13</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.296308975276666e-13</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.143288792437871e-13</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.059125073982612e-13</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.84155214625671e-13</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.337199610733072e-13</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>3.470598856107496e-13</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3.122323438498635e-13</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>2.904817825487519e-13</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.73618052052627e-13</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>2.55075452561434e-13</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>2.339169157180362e-13</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>2.354249893233477e-13</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.185221816193119e-13</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.797793567910939e-14</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.939362637912661e-14</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.141087430293651e-14</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.569851165009966e-14</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.071030708672668e-14</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.743752937661877e-14</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.775948706410311e-14</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.381798856315909e-14</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.260259934442521e-14</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4.556603556558885e-14</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.812637351704746e-14</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>3.346539200937213e-14</v>
+        <v>1.060838461379074e-12</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>1.354157221998348e-11</v>
+        <v>694772.8040561351</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.671086993807258e-11</v>
+        <v>1180986.443224523</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.33737722157651e-11</v>
+        <v>1645934.902685364</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>3.261054601759661e-11</v>
+        <v>1625490.100232039</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>4.320632096345766e-11</v>
+        <v>1987140.2447089</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>8.783666543636032e-11</v>
+        <v>1891525.430810072</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.435230869376306e-10</v>
+        <v>1801107.133982177</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>3.867302551978537e-10</v>
+        <v>1940626.787599175</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>6.142812804016024e-10</v>
+        <v>1373205.725892077</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>6.525997634656431e-10</v>
+        <v>1712054.126641523</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>5.1085145592208e-10</v>
+        <v>1879520.883497037</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>2.571450629101008e-10</v>
+        <v>1188946.411494726</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.954492182877395e-10</v>
+        <v>810028.9546154463</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>2.460408974390176e-10</v>
+        <v>585433.4885491923</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.078187157752173e-10</v>
+        <v>629206.2744205185</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>7.720968535784981e-11</v>
+        <v>529410.7584756569</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>4.384417527681781e-11</v>
+        <v>546255.5996709123</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>2.216665542023836e-11</v>
+        <v>689871.0922774097</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.688665508532323e-11</v>
+        <v>568179.4226929857</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.686886229411531e-11</v>
+        <v>675233.0776410339</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.981845787319733e-11</v>
+        <v>1212139.959683579</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>2.480904018981652e-11</v>
+        <v>1409464.656434101</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>2.362115021952272e-11</v>
+        <v>1956062.097383539</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>4.941509109898969e-11</v>
+        <v>2061113.238788649</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>7.384858250012268e-11</v>
+        <v>1930073.008878259</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.731372796621311e-10</v>
+        <v>2111143.901429216</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>4.209905921792598e-10</v>
+        <v>2051568.977381063</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>4.00334901507401e-10</v>
+        <v>2028192.921810002</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.103309253242084e-10</v>
+        <v>1984528.968188186</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.059294361995923e-10</v>
+        <v>2001743.571646064</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>5.126922099745152e-11</v>
+        <v>1863878.864189602</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>5.118844272705904e-11</v>
+        <v>1746517.49701263</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.469699107847046e-11</v>
+        <v>1962487.787459383</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.974697414294122e-11</v>
+        <v>1734658.831939787</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.875887603428e-11</v>
+        <v>1649795.665196903</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>2.095521367497252e-11</v>
+        <v>1104004.56388177</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4.332329272833803e-11</v>
+        <v>1089847.146232561</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>2.713028780323808e-11</v>
+        <v>1022568.663313144</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.169221896283388e-11</v>
+        <v>1089960.652804715</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>9.732727384132977e-12</v>
+        <v>1620639.363399538</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>8.266051655430954e-12</v>
+        <v>1657001.169622657</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>9.836771661944229e-12</v>
+        <v>1512774.594177519</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.649512806514529e-11</v>
+        <v>1344248.041031171</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>3.75037530189299e-11</v>
+        <v>1381705.014297883</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>4.158255752867584e-11</v>
+        <v>1319964.975059751</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>4.656145619174891e-11</v>
+        <v>805499.3004119706</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>4.739975393258622e-11</v>
+        <v>988769.1931721808</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>4.146189340911042e-11</v>
+        <v>1358243.262093708</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>3.502774527110086e-11</v>
+        <v>1894474.548821139</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>2.538903359324846e-11</v>
+        <v>2489223.668759237</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>2.233192469197361e-11</v>
+        <v>5007020.529411063</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>2.083965744907158e-11</v>
+        <v>8128094.677877388</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>2.078760614236537e-11</v>
+        <v>21895659.76971819</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>1.985051074207531e-11</v>
+        <v>34628670.90195145</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.929410010727323e-11</v>
+        <v>36495608.09131267</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>2.091084055506902e-11</v>
+        <v>28431877.12771783</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>2.636359269456047e-11</v>
+        <v>14265750.53746828</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>3.954871061877288e-11</v>
+        <v>10837692.32394154</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>5.82829223207198e-11</v>
+        <v>13599139.78984025</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>7.407434902996872e-11</v>
+        <v>5943591.370992524</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>9.507524920775702e-11</v>
+        <v>4237634.602554828</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.15688901939506e-10</v>
+        <v>2393536.148860743</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.232109674787998e-10</v>
+        <v>1208804.295384645</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.494044578219988e-10</v>
+        <v>921186.0536732557</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.769186682168871e-10</v>
+        <v>925394.8731532912</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.764860870685146e-10</v>
+        <v>1071705.293382992</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.932951737384795e-10</v>
+        <v>1369818.617556782</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.937995223913453e-10</v>
+        <v>1304688.26846824</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.903690613985331e-10</v>
+        <v>2593535.530232732</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.850055301456968e-10</v>
+        <v>3999663.876306074</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.839471247287256e-10</v>
+        <v>9200212.933826024</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.728750417896208e-10</v>
+        <v>22209861.84260826</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.672427529218974e-10</v>
+        <v>20992305.58189537</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>1.324901425313161e-10</v>
+        <v>10944796.912311</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>1.204525405764363e-10</v>
+        <v>5505058.507648454</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>9.95482089149332e-11</v>
+        <v>2632734.411595684</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>7.458851153298047e-11</v>
+        <v>2621615.268818534</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>6.679999868932083e-11</v>
+        <v>1794065.2044498</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>5.63960049532982e-11</v>
+        <v>1497260.02860788</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>5.312497561846028e-11</v>
+        <v>939171.5127158565</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>5.323520020271184e-11</v>
+        <v>1046930.513450397</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>5.230172424209858e-11</v>
+        <v>2148622.069028501</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>4.984505315119888e-11</v>
+        <v>1327128.710152826</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>4.964460746465211e-11</v>
+        <v>567334.2381802462</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>4.977808846210465e-11</v>
+        <v>470219.3495199502</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>5.507977565957463e-11</v>
+        <v>394819.5097386726</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>5.935857026840223e-11</v>
+        <v>459768.3654407695</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>6.176932790000653e-11</v>
+        <v>766714.4315791538</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>6.154402699062077e-11</v>
+        <v>1734393.723275294</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>5.972724396501796e-11</v>
+        <v>1916351.54064883</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>5.566791009662122e-11</v>
+        <v>2139227.752482869</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>4.690478227993784e-11</v>
+        <v>2161747.556116373</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>2.828634251331902e-11</v>
+        <v>1880499.667716755</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>2.341568456320651e-11</v>
+        <v>1586415.148732735</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.839365627916545e-11</v>
+        <v>1140275.571203451</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.37033192376421e-11</v>
+        <v>998882.7397420098</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.261488926023613e-11</v>
+        <v>931417.2633356955</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22391331375302e-11</v>
+        <v>918115.5176031709</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.235237679978371e-11</v>
+        <v>882465.7622708681</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.166521849070228e-11</v>
+        <v>849155.3768064217</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.155353764207956e-11</v>
+        <v>908914.6857141446</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>1.159107659153459e-11</v>
+        <v>1135432.71323503</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.153725285656538e-11</v>
+        <v>1674400.560273702</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>1.127395110270012e-11</v>
+        <v>2449510.251461452</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.098819963116314e-11</v>
+        <v>3095083.012758819</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.091989337384611e-11</v>
+        <v>3941716.495740654</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>9.73230483654723e-12</v>
+        <v>4781843.4360642</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>9.853739354966567e-12</v>
+        <v>5077399.496625411</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>9.887315214307424e-12</v>
+        <v>6137206.019825216</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>9.744155608263353e-12</v>
+        <v>7212547.911343699</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>8.443082418566819e-12</v>
+        <v>7177457.812815294</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>7.201806730824864e-12</v>
+        <v>7822134.794077832</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>6.726756240284217e-12</v>
+        <v>7818225.554673179</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>6.52594794251439e-12</v>
+        <v>7667141.080992673</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>7.971622528024605e-12</v>
+        <v>7438049.878670192</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.356866350771204e-11</v>
+        <v>7372454.624673424</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.650664982708033e-11</v>
+        <v>6923469.246224681</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>1.735362257729819e-11</v>
+        <v>6691967.458204878</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>1.752683505056814e-11</v>
+        <v>5264869.741367879</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>1.771993420076302e-11</v>
+        <v>4767700.267212725</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>1.778042747948671e-11</v>
+        <v>3934590.443110404</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>1.681153457699293e-11</v>
+        <v>2924980.36551682</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.529321665458013e-11</v>
+        <v>2609800.744686245</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>9.230307383633487e-12</v>
+        <v>2199827.231254094</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>5.585793536759256e-12</v>
+        <v>2065942.203528791</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.718752997380714e-12</v>
+        <v>2071500.454498984</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>5.063210689425705e-12</v>
+        <v>2035574.601093273</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>6.863677573115729e-12</v>
+        <v>1929740.857436621</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>7.56521109132692e-12</v>
+        <v>1920861.459972092</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>1.119660512425819e-11</v>
+        <v>1918198.438611945</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>1.438028926262248e-11</v>
+        <v>2120817.897756278</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>1.469827554600493e-11</v>
+        <v>2278813.963649358</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>1.389444803863389e-11</v>
+        <v>2366844.713452405</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.232127135460073e-11</v>
+        <v>2357636.840091218</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.219894309387505e-11</v>
+        <v>2278836.139640721</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.074034808763262e-11</v>
+        <v>2117592.964584033</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>8.977398026724037e-12</v>
+        <v>1780523.155372466</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>8.066219417491936e-12</v>
+        <v>1065337.40692605</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>7.854152959461315e-12</v>
+        <v>876854.604363176</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>7.649043606984241e-12</v>
+        <v>689754.469366899</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>7.513622620906719e-12</v>
+        <v>510693.4457102217</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>6.983399701153995e-12</v>
+        <v>466671.0538472201</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>7.683839293979535e-12</v>
+        <v>450049.4088705573</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>8.71935588923891e-12</v>
+        <v>455301.1267980554</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>9.735056676749954e-12</v>
+        <v>429841.5197334691</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>1.082970158793537e-11</v>
+        <v>427557.3470376698</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>1.234368538294945e-11</v>
+        <v>427361.4652135119</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>1.369116205362182e-11</v>
+        <v>424974.1045316015</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>1.30537359391765e-11</v>
+        <v>413966.7759340431</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>1.29658758944493e-11</v>
+        <v>401396.8220192688</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>1.144055144169532e-11</v>
+        <v>398492.9382888509</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>1.12314927017485e-11</v>
+        <v>357850.4412407019</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>9.828028478384206e-12</v>
+        <v>360035.6450271374</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>9.380010378398403e-12</v>
+        <v>362378.6757861455</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>9.130793501889798e-12</v>
+        <v>355419.802172562</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.149260243160045e-11</v>
+        <v>307258.5200329824</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>9.994030781997893e-12</v>
+        <v>262683.7601282504</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>1.042323575416556e-11</v>
+        <v>242700.4485453267</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>9.389282987063725e-12</v>
+        <v>235244.2375859033</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>8.747164940791374e-12</v>
+        <v>286297.6099419803</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>8.250135683361246e-12</v>
+        <v>489836.7601601396</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>7.702227874255021e-12</v>
+        <v>589777.0190690948</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>7.07266391950482e-12</v>
+        <v>619880.1386844013</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>7.125873320985073e-12</v>
+        <v>623460.3182929968</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>3.599729471341752e-12</v>
+        <v>630066.7442388238</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.462301191527197e-12</v>
+        <v>632758.0990728135</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>8.97561681785417e-13</v>
+        <v>595115.7794071111</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.264872106058048e-12</v>
+        <v>542087.9832086324</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>7.852177300887862e-13</v>
+        <v>324317.6214343189</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>6.336859401764739e-13</v>
+        <v>193561.2841672516</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>5.349298247947832e-13</v>
+        <v>161626.9585483258</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>5.459722496432102e-13</v>
+        <v>171174.9571173163</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>7.372643927290772e-13</v>
+        <v>230911.9779791589</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.328098601452643e-12</v>
+        <v>252614.9526454883</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.430207588338229e-12</v>
+        <v>371896.9860625645</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.205504749217378e-12</v>
+        <v>478699.6091074059</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.060838461379074e-12</v>
+        <v>484452.2045267945</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>456719.2538271976</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>402898.4590720641</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>399849.0926824935</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>350936.0321777452</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>292028.6201451247</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>262472.4770754619</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>256356.4563681372</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>247728.0251516799</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>242798.7170485394</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>225754.4885516239</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>246966.6106468599</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>279482.8059643749</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>310423.4329358008</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>343207.449974019</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>390303.1771317989</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>432123.5624155268</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>411860.6390539438</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>406724.7970505821</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>358651.1608957256</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>351966.098072066</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>307654.1789156719</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>293273.5939645329</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>285481.1185670907</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>358001.6818149409</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>310739.4346998838</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>322489.0505952456</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>291033.9374178635</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>270796.4149638425</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>254900.9124180817</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>237107.4575601735</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>217848.2214962771</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>219807.4393173352</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>110759.8818460462</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>44649.6073063319</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>27352.93001494346</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>38583.11386305009</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>23934.49059135693</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>19253.90175100952</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16099.9873363134</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>16200.76963110182</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>22239.22524706035</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>39618.67054235526</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>42390.80854767443</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>35485.75199415736</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>31111.49965066879</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>694772.8040561351</v>
+        <v>1.489751238489569e-11</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1180986.443224523</v>
+        <v>1.779382907134336e-11</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1645934.902685364</v>
+        <v>2.471385936307132e-11</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>1625490.100232039</v>
+        <v>3.497666105171204e-11</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1987140.2447089</v>
+        <v>4.625915176329825e-11</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1891525.430810072</v>
+        <v>9.14835786235173e-11</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1801107.133982177</v>
+        <v>1.497080390009984e-10</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1940626.787599175</v>
+        <v>3.96511758720205e-10</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1373205.725892077</v>
+        <v>6.276178888385372e-10</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1712054.126641523</v>
+        <v>6.703404200468059e-10</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1879520.883497037</v>
+        <v>5.229190200480797e-10</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>1188946.411494726</v>
+        <v>2.628070153681232e-10</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>810028.9546154463</v>
+        <v>2.014782187612158e-10</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>585433.4885491923</v>
+        <v>2.531766027925525e-10</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>629206.2744205185</v>
+        <v>1.124476947216389e-10</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>529410.7584756569</v>
+        <v>7.904249236344929e-11</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>546255.5996709123</v>
+        <v>4.546468739001218e-11</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>689871.0922774097</v>
+        <v>2.391079267475944e-11</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>568179.4226929857</v>
+        <v>1.817064727765025e-11</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>675233.0776410339</v>
+        <v>1.794634837862285e-11</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1212139.959683579</v>
+        <v>2.17153764515713e-11</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1409464.656434101</v>
+        <v>2.681491456011814e-11</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1956062.097383539</v>
+        <v>2.549250316566032e-11</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>2061113.238788649</v>
+        <v>5.162070122051824e-11</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1930073.008878259</v>
+        <v>7.909420528829452e-11</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>2111143.901429216</v>
+        <v>1.779770677238523e-10</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>2051568.977381063</v>
+        <v>4.362232871190337e-10</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>2028192.921810002</v>
+        <v>4.168365777851794e-10</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1984528.968188186</v>
+        <v>2.148993295642908e-10</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>2001743.571646064</v>
+        <v>1.101474954873406e-10</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1863878.864189602</v>
+        <v>5.364280858587576e-11</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1746517.49701263</v>
+        <v>5.294093817298611e-11</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1962487.787459383</v>
+        <v>3.515022026432486e-11</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1734658.831939787</v>
+        <v>3.17032896296921e-11</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1649795.665196903</v>
+        <v>1.874900194904663e-11</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1104004.56388177</v>
+        <v>2.223105283410317e-11</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1089847.146232561</v>
+        <v>4.573604427559202e-11</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1022568.663313144</v>
+        <v>2.852345923191494e-11</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1089960.652804715</v>
+        <v>1.237111400565947e-11</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1620639.363399538</v>
+        <v>1.072257564787576e-11</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1657001.169622657</v>
+        <v>8.961802158925342e-12</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1512774.594177519</v>
+        <v>1.021049312788758e-11</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1344248.041031171</v>
+        <v>1.764703618899028e-11</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1381705.014297883</v>
+        <v>3.916895784079388e-11</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1319964.975059751</v>
+        <v>4.348842993782717e-11</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>805499.3004119706</v>
+        <v>4.88679511702712e-11</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>988769.1931721808</v>
+        <v>4.92153306743709e-11</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1358243.262093708</v>
+        <v>4.266127632802508e-11</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1894474.548821139</v>
+        <v>3.678041605863809e-11</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2489223.668759237</v>
+        <v>2.6827016268982e-11</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5007020.529411063</v>
+        <v>2.394481276673661e-11</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>8128094.677877388</v>
+        <v>2.211842276517029e-11</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>21895659.76971819</v>
+        <v>2.183641750554727e-11</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>34628670.90195145</v>
+        <v>2.099080629963834e-11</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>36495608.09131267</v>
+        <v>2.027962415556051e-11</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>28431877.12771783</v>
+        <v>2.197884365144985e-11</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>14265750.53746828</v>
+        <v>2.778662760550864e-11</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>10837692.32394154</v>
+        <v>4.135218566633231e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>13599139.78984025</v>
+        <v>5.993881510023384e-11</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>5943591.370992524</v>
+        <v>7.650072214404386e-11</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>4237634.602554828</v>
+        <v>9.776365348189389e-11</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>2393536.148860743</v>
+        <v>1.188378969158014e-10</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1208804.295384645</v>
+        <v>1.263629190867573e-10</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>921186.0536732557</v>
+        <v>1.53558033781813e-10</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>925394.8731532912</v>
+        <v>1.811693865445146e-10</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1071705.293382992</v>
+        <v>1.810045093534992e-10</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1369818.617556782</v>
+        <v>1.976436679654073e-10</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1304688.26846824</v>
+        <v>1.983706826260089e-10</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2593535.530232732</v>
+        <v>1.951070843774622e-10</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3999663.876306074</v>
+        <v>1.895392591646032e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>9200212.933826024</v>
+        <v>1.879175722034108e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>22209861.84260826</v>
+        <v>1.766687288983326e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>20992305.58189537</v>
+        <v>1.713256425722457e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>10944796.912311</v>
+        <v>1.358133209868229e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5505058.507648454</v>
+        <v>1.235795992294181e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2632734.411595684</v>
+        <v>1.022063370813699e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2621615.268818534</v>
+        <v>7.649803006371314e-11</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1794065.2044498</v>
+        <v>6.86425137358727e-11</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1497260.02860788</v>
+        <v>5.814600395029697e-11</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>939171.5127158565</v>
+        <v>5.469857121257462e-11</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1046930.513450397</v>
+        <v>5.492983896974013e-11</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>2148622.069028501</v>
+        <v>5.405211893432082e-11</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1327128.710152826</v>
+        <v>5.133095510712548e-11</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>567334.2381802462</v>
+        <v>5.12633620518529e-11</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>470219.3495199502</v>
+        <v>5.144781740296134e-11</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>394819.5097386726</v>
+        <v>5.649915228079914e-11</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>459768.3654407695</v>
+        <v>6.106761441248109e-11</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>766714.4315791538</v>
+        <v>6.348995222136474e-11</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1734393.723275294</v>
+        <v>6.350258242040919e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1916351.54064883</v>
+        <v>6.127805498192197e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>2139227.752482869</v>
+        <v>5.712342156562429e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>2161747.556116373</v>
+        <v>4.834160443264239e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1880499.667716755</v>
+        <v>2.921912464927207e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1586415.148732735</v>
+        <v>2.416000485816315e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1140275.571203451</v>
+        <v>1.921580664667461e-11</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>998882.7397420098</v>
+        <v>1.435390877878334e-11</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>931417.2633356955</v>
+        <v>1.325715350750176e-11</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>918115.5176031709</v>
+        <v>1.284017781081499e-11</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>882465.7622708681</v>
+        <v>1.299484713377703e-11</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>849155.3768064217</v>
+        <v>1.225388748080681e-11</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>908914.6857141446</v>
+        <v>1.219095115734246e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1135432.71323503</v>
+        <v>1.226754594491453e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1674400.560273702</v>
+        <v>1.210186590501445e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2449510.251461452</v>
+        <v>1.176758991608517e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>3095083.012758819</v>
+        <v>1.138229499309214e-11</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3941716.495740654</v>
+        <v>1.115210770527884e-11</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>4781843.4360642</v>
+        <v>1.039271106507805e-11</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>5077399.496625411</v>
+        <v>1.041813424295498e-11</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>6137206.019825216</v>
+        <v>1.057579002883737e-11</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>7212547.911343699</v>
+        <v>1.034385531892848e-11</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>7177457.812815294</v>
+        <v>8.962472228779096e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>7822134.794077832</v>
+        <v>7.749760855790566e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>7818225.554673179</v>
+        <v>7.177466578718734e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>7667141.080992673</v>
+        <v>6.936724879624572e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>7438049.878670192</v>
+        <v>8.552295458674712e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>7372454.624673424</v>
+        <v>1.43814040930662e-11</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>6923469.246224681</v>
+        <v>1.719930622193356e-11</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>6691967.458204878</v>
+        <v>1.814787525928041e-11</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>5264869.741367879</v>
+        <v>1.821403517925332e-11</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>4767700.267212725</v>
+        <v>1.859521099957842e-11</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>3934590.443110404</v>
+        <v>1.859801093339238e-11</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2924980.36551682</v>
+        <v>1.750871324989115e-11</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2609800.744686245</v>
+        <v>1.603345315316928e-11</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2199827.231254094</v>
+        <v>9.703779338754722e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>2065942.203528791</v>
+        <v>5.906458184546416e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2071500.454498984</v>
+        <v>5.058392718786205e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2035574.601093273</v>
+        <v>5.34235308924071e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1929740.857436621</v>
+        <v>7.277759182228272e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1920861.459972092</v>
+        <v>7.971220967236232e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1918198.438611945</v>
+        <v>1.167802771506624e-11</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2120817.897756278</v>
+        <v>1.496724234159282e-11</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2278813.963649358</v>
+        <v>1.539662328680027e-11</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>2366844.713452405</v>
+        <v>1.446186017954341e-11</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2357636.840091218</v>
+        <v>1.271167727166363e-11</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>2278836.139640721</v>
+        <v>1.111750087524857e-11</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>2117592.964584033</v>
+        <v>9.301927272354566e-12</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1780523.155372466</v>
+        <v>8.465693533649783e-12</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1065337.40692605</v>
+        <v>8.367247494871978e-12</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>876854.604363176</v>
+        <v>7.910627851546807e-12</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>689754.469366899</v>
+        <v>7.835440268321863e-12</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>510693.4457102217</v>
+        <v>7.497954104332969e-12</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>466671.0538472201</v>
+        <v>8.103250127197135e-12</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>450049.4088705573</v>
+        <v>9.170872298603946e-12</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>455301.1267980554</v>
+        <v>1.015815548847665e-11</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>429841.5197334691</v>
+        <v>1.127378307177331e-11</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>427557.3470376698</v>
+        <v>1.278406704194136e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>427361.4652135119</v>
+        <v>1.385397084765889e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>424974.1045316015</v>
+        <v>1.334099713577575e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>413966.7759340431</v>
+        <v>1.185686138391819e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>401396.8220192688</v>
+        <v>1.164984820333036e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>398492.9382888509</v>
+        <v>1.022637763673192e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>357850.4412407019</v>
+        <v>9.764746281063403e-12</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>360035.6450271374</v>
+        <v>9.518865766443639e-12</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>362378.6757861455</v>
+        <v>1.188351995407592e-11</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>355419.802172562</v>
+        <v>1.038817736094718e-11</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>307258.5200329824</v>
+        <v>1.079256605628281e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>262683.7601282504</v>
+        <v>9.761299634795998e-12</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>242700.4485453267</v>
+        <v>9.103235727937033e-12</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>235244.2375859033</v>
+        <v>8.607677035056898e-12</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>286297.6099419803</v>
+        <v>7.927365035424328e-12</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>489836.7601601396</v>
+        <v>7.372057652009075e-12</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>589777.0190690948</v>
+        <v>7.492497774917745e-12</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>619880.1386844013</v>
+        <v>3.831657639688444e-12</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>623460.3182929968</v>
+        <v>1.565618007850423e-12</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>630066.7442388238</v>
+        <v>9.384577367846204e-13</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>632758.0990728135</v>
+        <v>1.349970158082088e-12</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>595115.7794071111</v>
+        <v>8.396915797716144e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>542087.9832086324</v>
+        <v>6.692631388601741e-13</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>324317.6214343189</v>
+        <v>5.571744272569326e-13</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>193561.2841672516</v>
+        <v>5.579839409836327e-13</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>161626.9585483258</v>
+        <v>7.954971528196859e-13</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>171174.9571173163</v>
+        <v>1.415419246339868e-12</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>230911.9779791589</v>
+        <v>1.527159723181114e-12</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>252614.9526454883</v>
+        <v>1.282015037593934e-12</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>371896.9860625645</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>478699.6091074059</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>484452.2045267945</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>456719.2538271976</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>402898.4590720641</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>399849.0926824935</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>350936.0321777452</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>292028.6201451247</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>262472.4770754619</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>256356.4563681372</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>247728.0251516799</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>242798.7170485394</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>225754.4885516239</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>246966.6106468599</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>279482.8059643749</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>310423.4329358008</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>343207.449974019</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>390303.1771317989</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>432123.5624155268</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>411860.6390539438</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>406724.7970505821</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>358651.1608957256</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>351966.098072066</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>307654.1789156719</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>293273.5939645329</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>285481.1185670907</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>358001.6818149409</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>310739.4346998838</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>322489.0505952456</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>291033.9374178635</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>270796.4149638425</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>254900.9124180817</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>237107.4575601735</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>217848.2214962771</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>219807.4393173352</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>110759.8818460462</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>44649.6073063319</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>27352.93001494346</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>38583.11386305009</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>23934.49059135693</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>19253.90175100952</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>16099.9873363134</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>16200.76963110182</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>22239.22524706035</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>39618.67054235526</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>42390.80854767443</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>35485.75199415736</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>31111.49965066879</v>
+        <v>1.127932068556634e-12</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.489751238489569e-11</v>
+        <v>7.795490140591998e-12</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.779382907134336e-11</v>
+        <v>1.103792946291623e-11</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>2.471385936307132e-11</v>
+        <v>1.763504733510506e-11</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>3.497666105171204e-11</v>
+        <v>2.889287101208655e-11</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>4.625915176329825e-11</v>
+        <v>4.15543391572001e-11</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>9.14835786235173e-11</v>
+        <v>8.390488622509577e-11</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.497080390009984e-10</v>
+        <v>1.452779747551318e-10</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>3.96511758720205e-10</v>
+        <v>3.871245154220873e-10</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>6.276178888385372e-10</v>
+        <v>6.144759646147162e-10</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6.703404200468059e-10</v>
+        <v>6.653471645176546e-10</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>5.229190200480797e-10</v>
+        <v>5.160833747333777e-10</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.628070153681232e-10</v>
+        <v>2.602591903763314e-10</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>2.014782187612158e-10</v>
+        <v>1.955453593562243e-10</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.531766027925525e-10</v>
+        <v>2.499912683647019e-10</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.124476947216389e-10</v>
+        <v>1.0733070679496e-10</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>7.904249236344929e-11</v>
+        <v>7.553217948560463e-11</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>4.546468739001218e-11</v>
+        <v>3.933005527703431e-11</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.391079267475944e-11</v>
+        <v>1.933712775613885e-11</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.817064727765025e-11</v>
+        <v>1.459658177044062e-11</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.794634837862285e-11</v>
+        <v>1.363234681171117e-11</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.17153764515713e-11</v>
+        <v>1.845832244522919e-11</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.681491456011814e-11</v>
+        <v>2.543769322560776e-11</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.549250316566032e-11</v>
+        <v>2.1463798809521e-11</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>5.162070122051824e-11</v>
+        <v>4.477537949956773e-11</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>7.909420528829452e-11</v>
+        <v>7.005806457054715e-11</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.779770677238523e-10</v>
+        <v>1.763232766050597e-10</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>4.362232871190337e-10</v>
+        <v>4.336174765824249e-10</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>4.168365777851794e-10</v>
+        <v>4.115100235807285e-10</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.148993295642908e-10</v>
+        <v>2.1359572063274e-10</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.101474954873406e-10</v>
+        <v>1.062788753877441e-10</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>5.364280858587576e-11</v>
+        <v>5.133704502438415e-11</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.294093817298611e-11</v>
+        <v>5.037720601073823e-11</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.515022026432486e-11</v>
+        <v>3.613721531983963e-11</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3.17032896296921e-11</v>
+        <v>2.432334872583313e-11</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.874900194904663e-11</v>
+        <v>1.839642074207533e-11</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.223105283410317e-11</v>
+        <v>2.151419417480074e-11</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.573604427559202e-11</v>
+        <v>4.497433661753442e-11</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.852345923191494e-11</v>
+        <v>2.803384514316709e-11</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.237111400565947e-11</v>
+        <v>1.134205724601313e-11</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.072257564787576e-11</v>
+        <v>9.399829146395668e-12</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>8.961802158925342e-12</v>
+        <v>8.331091053821991e-12</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.021049312788758e-11</v>
+        <v>9.334367972609219e-12</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.764703618899028e-11</v>
+        <v>1.731077135449049e-11</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.916895784079388e-11</v>
+        <v>3.861679412768359e-11</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>4.348842993782717e-11</v>
+        <v>4.288109922055778e-11</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.88679511702712e-11</v>
+        <v>4.886241850483898e-11</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>4.92153306743709e-11</v>
+        <v>4.900688668070459e-11</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>4.266127632802508e-11</v>
+        <v>4.20848570751936e-11</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>3.678041605863809e-11</v>
+        <v>3.619708955173889e-11</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.6827016268982e-11</v>
+        <v>2.69703569245056e-11</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>2.394481276673661e-11</v>
+        <v>2.372298190634153e-11</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>2.211842276517029e-11</v>
+        <v>2.236391034595717e-11</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>2.183641750554727e-11</v>
+        <v>2.148510067039923e-11</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.099080629963834e-11</v>
+        <v>2.0128884583164e-11</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.027962415556051e-11</v>
+        <v>1.951727065902276e-11</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>2.197884365144985e-11</v>
+        <v>2.166009737954165e-11</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2.778662760550864e-11</v>
+        <v>2.739650152037462e-11</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>4.135218566633231e-11</v>
+        <v>4.136460163293153e-11</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>5.993881510023384e-11</v>
+        <v>6.025100554630056e-11</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>7.650072214404386e-11</v>
+        <v>7.681760323941042e-11</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>9.776365348189389e-11</v>
+        <v>9.801470238814741e-11</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.188378969158014e-10</v>
+        <v>1.193871870004393e-10</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.263629190867573e-10</v>
+        <v>1.265774238252749e-10</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.53558033781813e-10</v>
+        <v>1.537072797172416e-10</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.811693865445146e-10</v>
+        <v>1.821295632320983e-10</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.810045093534992e-10</v>
+        <v>1.815651151716947e-10</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.976436679654073e-10</v>
+        <v>1.998530281608177e-10</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.983706826260089e-10</v>
+        <v>1.988643902843573e-10</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.951070843774622e-10</v>
+        <v>1.964405155386817e-10</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.895392591646032e-10</v>
+        <v>1.904142662236539e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.879175722034108e-10</v>
+        <v>1.882571528836892e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.766687288983326e-10</v>
+        <v>1.784281784862526e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.713256425722457e-10</v>
+        <v>1.719803842807878e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>1.358133209868229e-10</v>
+        <v>1.369702880826308e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1.235795992294181e-10</v>
+        <v>1.236196958678858e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.022063370813699e-10</v>
+        <v>1.02539823147062e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>7.649803006371314e-11</v>
+        <v>7.697180704798523e-11</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>6.86425137358727e-11</v>
+        <v>6.898891825055074e-11</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>5.814600395029697e-11</v>
+        <v>5.827677351471714e-11</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>5.469857121257462e-11</v>
+        <v>5.493837168792394e-11</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>5.492983896974013e-11</v>
+        <v>5.506871703292986e-11</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>5.405211893432082e-11</v>
+        <v>5.422769810506005e-11</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>5.133095510712548e-11</v>
+        <v>5.144451591893047e-11</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>5.12633620518529e-11</v>
+        <v>5.133337948642029e-11</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>5.144781740296134e-11</v>
+        <v>5.14853008822376e-11</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>5.649915228079914e-11</v>
+        <v>5.672117529973289e-11</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>6.106761441248109e-11</v>
+        <v>6.107364641621465e-11</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>6.348995222136474e-11</v>
+        <v>6.345468246246232e-11</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>6.350258242040919e-11</v>
+        <v>6.352766876190677e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>6.127805498192197e-11</v>
+        <v>6.147029824425873e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>5.712342156562429e-11</v>
+        <v>5.708425098233991e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>4.834160443264239e-11</v>
+        <v>4.859217060705941e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.921912464927207e-11</v>
+        <v>2.940413893672177e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.416000485816315e-11</v>
+        <v>2.441382793546737e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.921580664667461e-11</v>
+        <v>1.931551653819926e-11</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.435390877878334e-11</v>
+        <v>1.443648878637676e-11</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.325715350750176e-11</v>
+        <v>1.327767197077599e-11</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.284017781081499e-11</v>
+        <v>1.284449330675267e-11</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.299484713377703e-11</v>
+        <v>1.291921366736639e-11</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.225388748080681e-11</v>
+        <v>1.21719992442725e-11</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.219095115734246e-11</v>
+        <v>1.219975902073558e-11</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.226754594491453e-11</v>
+        <v>1.217882891539348e-11</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.210186590501445e-11</v>
+        <v>1.211850130578521e-11</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.176758991608517e-11</v>
+        <v>1.187565580467081e-11</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.138229499309214e-11</v>
+        <v>1.133141587476697e-11</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.115210770527884e-11</v>
+        <v>1.11321591736034e-11</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.039271106507805e-11</v>
+        <v>1.03384175515199e-11</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.041813424295498e-11</v>
+        <v>1.032752693432328e-11</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.057579002883737e-11</v>
+        <v>1.056208656654251e-11</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.034385531892848e-11</v>
+        <v>1.019087644861024e-11</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>8.962472228779096e-12</v>
+        <v>8.883829751027969e-12</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>7.749760855790566e-12</v>
+        <v>7.783309891403339e-12</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>7.177466578718734e-12</v>
+        <v>7.177863713636781e-12</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>6.936724879624572e-12</v>
+        <v>7.029955051878695e-12</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>8.552295458674712e-12</v>
+        <v>8.521155392764871e-12</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43814040930662e-11</v>
+        <v>1.431566496808462e-11</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.719930622193356e-11</v>
+        <v>1.721441496702533e-11</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.814787525928041e-11</v>
+        <v>1.80988829426308e-11</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.821403517925332e-11</v>
+        <v>1.819029227977306e-11</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.859521099957842e-11</v>
+        <v>1.857879335016948e-11</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.859801093339238e-11</v>
+        <v>1.866753090716583e-11</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.750871324989115e-11</v>
+        <v>1.760629567317424e-11</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.603345315316928e-11</v>
+        <v>1.613801827485131e-11</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>9.703779338754722e-12</v>
+        <v>9.722219519489651e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>5.906458184546416e-12</v>
+        <v>5.956168145740234e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>5.058392718786205e-12</v>
+        <v>5.060975236288623e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>5.34235308924071e-12</v>
+        <v>5.386075885905497e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>7.277759182228272e-12</v>
+        <v>7.279335634769819e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>7.971220967236232e-12</v>
+        <v>7.953895809479014e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.167802771506624e-11</v>
+        <v>1.162008642296758e-11</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.496724234159282e-11</v>
+        <v>1.521349497930076e-11</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.539662328680027e-11</v>
+        <v>1.54193491290031e-11</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.446186017954341e-11</v>
+        <v>1.447935572761716e-11</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.271167727166363e-11</v>
+        <v>1.269661626430948e-11</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.111750087524857e-11</v>
+        <v>1.107278218132078e-11</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>9.301927272354566e-12</v>
+        <v>9.436954301297833e-12</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>8.465693533649783e-12</v>
+        <v>8.394296457686498e-12</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>8.367247494871978e-12</v>
+        <v>8.2023170230446e-12</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>7.910627851546807e-12</v>
+        <v>7.272930442671769e-12</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>7.835440268321863e-12</v>
+        <v>7.784750052916369e-12</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>7.497954104332969e-12</v>
+        <v>7.52136928577035e-12</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>8.103250127197135e-12</v>
+        <v>7.81206776630584e-12</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>9.170872298603946e-12</v>
+        <v>9.081150310728134e-12</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.015815548847665e-11</v>
+        <v>1.011166065238793e-11</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.127378307177331e-11</v>
+        <v>1.122529636774992e-11</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.278406704194136e-11</v>
+        <v>1.27557146736425e-11</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.385397084765889e-11</v>
+        <v>1.387751365449047e-11</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.334099713577575e-11</v>
+        <v>1.330484992216823e-11</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.185686138391819e-11</v>
+        <v>1.189442969867735e-11</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.164984820333036e-11</v>
+        <v>1.169864370688783e-11</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.022637763673192e-11</v>
+        <v>1.029721645227719e-11</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>9.764746281063403e-12</v>
+        <v>9.79029794647054e-12</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>9.518865766443639e-12</v>
+        <v>9.556733478480979e-12</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.188351995407592e-11</v>
+        <v>1.194827543206812e-11</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.038817736094718e-11</v>
+        <v>1.041234787414887e-11</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.079256605628281e-11</v>
+        <v>1.085000004929787e-11</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>9.761299634795998e-12</v>
+        <v>9.801755727056945e-12</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>9.103235727937033e-12</v>
+        <v>9.14314554028383e-12</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>8.607677035056898e-12</v>
+        <v>8.614105453094235e-12</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>7.927365035424328e-12</v>
+        <v>7.98314454361868e-12</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>7.372057652009075e-12</v>
+        <v>7.405282162901546e-12</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>7.492497774917745e-12</v>
+        <v>7.539652891747409e-12</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>3.831657639688444e-12</v>
+        <v>3.85355519002294e-12</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.565618007850423e-12</v>
+        <v>1.612142561525988e-12</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>9.384577367846204e-13</v>
+        <v>9.587587139292046e-13</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.349970158082088e-12</v>
+        <v>1.373094505492653e-12</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>8.396915797716144e-13</v>
+        <v>8.666251256323747e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>6.692631388601741e-13</v>
+        <v>6.951648589799464e-13</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.571744272569326e-13</v>
+        <v>5.768242432379709e-13</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>5.579839409836327e-13</v>
+        <v>5.107187488201681e-13</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>7.954971528196859e-13</v>
+        <v>8.01678284043823e-13</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.415419246339868e-12</v>
+        <v>1.406052272086394e-12</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.527159723181114e-12</v>
+        <v>1.54229081938652e-12</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.282015037593934e-12</v>
+        <v>1.303383521511981e-12</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.127932068556634e-12</v>
+        <v>1.150861944032422e-12</v>
       </c>
     </row>
   </sheetData>
